--- a/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38045E0B-2649-47F5-BF52-669113091ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A0E595-062A-43B8-9B95-1B9CE7C5DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{52E81CF8-E5F5-46C2-9D91-3176052F7122}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F69EA04-1D72-4838-BB75-7BC6FCB010CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>82,93%</t>
   </si>
   <si>
-    <t>43,96%</t>
+    <t>42,11%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -116,7 +116,7 @@
     <t>17,07%</t>
   </si>
   <si>
-    <t>56,04%</t>
+    <t>57,89%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -125,400 +125,397 @@
     <t>39,51%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
   </si>
   <si>
     <t>51,31%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>37,39%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>46,29%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC51209-CCEF-4FEE-A8B1-94C0C23C82F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE52FA6-FF98-4018-AB4E-0F72081FD27D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1383,10 +1380,10 @@
         <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1395,13 +1392,13 @@
         <v>7585</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,7 +1454,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1469,13 +1466,13 @@
         <v>7860</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1484,13 +1481,13 @@
         <v>5141</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -1499,13 +1496,13 @@
         <v>13000</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1520,13 +1517,13 @@
         <v>2613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1535,10 +1532,10 @@
         <v>1667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>67</v>
@@ -1729,10 +1726,10 @@
         <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1741,13 +1738,13 @@
         <v>788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1756,13 +1753,13 @@
         <v>3661</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1774,13 @@
         <v>2502</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1792,13 +1789,13 @@
         <v>3119</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1807,13 +1804,13 @@
         <v>5622</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,7 +1866,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1881,13 +1878,13 @@
         <v>14337</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -1896,13 +1893,13 @@
         <v>7271</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -1911,13 +1908,13 @@
         <v>21608</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1929,13 @@
         <v>3518</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -1947,13 +1944,13 @@
         <v>2891</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1962,13 +1959,13 @@
         <v>6410</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1980,13 @@
         <v>3110</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -1998,13 +1995,13 @@
         <v>8760</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2013,13 +2010,13 @@
         <v>11871</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2084,13 @@
         <v>41770</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2102,13 +2099,13 @@
         <v>18290</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>84</v>
@@ -2117,13 +2114,13 @@
         <v>60060</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2135,13 @@
         <v>14434</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2153,13 +2150,13 @@
         <v>7205</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2168,13 +2165,13 @@
         <v>21640</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2186,13 @@
         <v>9019</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -2204,13 +2201,13 @@
         <v>28222</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -2219,13 +2216,13 @@
         <v>37240</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2278,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A0E595-062A-43B8-9B95-1B9CE7C5DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8C3285-D1A7-4F97-AF2E-34C2B4A4DD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F69EA04-1D72-4838-BB75-7BC6FCB010CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB86467A-5A07-4439-BD60-BE51DD8FDA53}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -119,7 +119,7 @@
     <t>57,89%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>39,51%</t>
@@ -200,7 +200,7 @@
     <t>59,79%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>60,89%</t>
@@ -278,7 +278,7 @@
     <t>61,36%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>63,54%</t>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE52FA6-FF98-4018-AB4E-0F72081FD27D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927AB01F-69F1-4AF4-BE19-1598D408637F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8C3285-D1A7-4F97-AF2E-34C2B4A4DD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1F7D2D-F23A-457C-A1F7-829460E6B4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB86467A-5A07-4439-BD60-BE51DD8FDA53}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03A7D1C7-AE1B-4C67-9B1E-ADDC466C9CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>82,93%</t>
   </si>
   <si>
-    <t>42,11%</t>
+    <t>43,96%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -116,7 +116,7 @@
     <t>17,07%</t>
   </si>
   <si>
-    <t>57,89%</t>
+    <t>56,04%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,76 +125,73 @@
     <t>39,51%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
   </si>
   <si>
     <t>51,31%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>18,75%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>34,7%</t>
+    <t>30,31%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>88,84%</t>
   </si>
   <si>
     <t>37,02%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>19,17%</t>
   </si>
   <si>
     <t>59,79%</t>
@@ -206,46 +203,49 @@
     <t>60,89%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>46,36%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>50,19%</t>
+    <t>52,9%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>29,3%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>34,94%</t>
@@ -254,28 +254,28 @@
     <t>18,86%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>38,38%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -284,73 +284,76 @@
     <t>63,54%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>48,36%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>19,49%</t>
   </si>
   <si>
-    <t>47,48%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>49,76%</t>
+    <t>44,58%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>49,0%</t>
+    <t>48,99%</t>
   </si>
   <si>
     <t>41,22%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -359,163 +362,163 @@
     <t>68,38%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>38,43%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
   </si>
   <si>
     <t>54,17%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>46,29%</t>
   </si>
   <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
   </si>
   <si>
     <t>29,76%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927AB01F-69F1-4AF4-BE19-1598D408637F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88877278-88EF-451A-886E-04F3D0D50A9B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1380,10 +1383,10 @@
         <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -1392,13 +1395,13 @@
         <v>7585</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,7 +1457,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1466,13 +1469,13 @@
         <v>7860</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1481,13 +1484,13 @@
         <v>5141</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>20</v>
@@ -1496,13 +1499,13 @@
         <v>13000</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,13 +1520,13 @@
         <v>2613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1532,10 +1535,10 @@
         <v>1667</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>67</v>
@@ -1726,10 +1729,10 @@
         <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1738,13 +1741,13 @@
         <v>788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1753,13 +1756,13 @@
         <v>3661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1777,13 @@
         <v>2502</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1789,13 +1792,13 @@
         <v>3119</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1804,13 +1807,13 @@
         <v>5622</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,7 +1869,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1878,13 +1881,13 @@
         <v>14337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -1893,13 +1896,13 @@
         <v>7271</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>32</v>
@@ -1908,13 +1911,13 @@
         <v>21608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1932,13 @@
         <v>3518</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -1944,13 +1947,13 @@
         <v>2891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -1959,13 +1962,13 @@
         <v>6410</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1983,13 @@
         <v>3110</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -1995,13 +1998,13 @@
         <v>8760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -2010,13 +2013,13 @@
         <v>11871</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2087,13 @@
         <v>41770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -2099,13 +2102,13 @@
         <v>18290</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>84</v>
@@ -2114,13 +2117,13 @@
         <v>60060</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2138,13 @@
         <v>14434</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2150,13 +2153,13 @@
         <v>7205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2165,13 +2168,13 @@
         <v>21640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2189,13 @@
         <v>9019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -2201,13 +2204,13 @@
         <v>28222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -2216,13 +2219,13 @@
         <v>37240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2281,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1F7D2D-F23A-457C-A1F7-829460E6B4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC6CC2B-A369-499E-86AF-400C89EE2FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03A7D1C7-AE1B-4C67-9B1E-ADDC466C9CB6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2D11BF37-1A03-4D2B-A625-9E6A977BC225}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -65,460 +65,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>Sí, en algún momento</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>Sí, todo o casi todo el tiempo</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>Sí, en algún momento</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>Sí, todo o casi todo el tiempo</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>56,26%</t>
   </si>
   <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>7,6%</t>
+    <t>7,64%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -933,8 +894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88877278-88EF-451A-886E-04F3D0D50A9B}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EAF440-3A50-46D8-9213-5D9569A6A48A}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1051,10 +1012,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>6026</v>
+        <v>9658</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1066,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>782</v>
+        <v>2107</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1078,124 +1039,124 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>6808</v>
+        <v>11765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5391</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>7211</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>948</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>1401</v>
+        <v>7624</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>1401</v>
+        <v>8572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,204 +1165,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>6026</v>
+        <v>15997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>2183</v>
+        <v>11551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>8209</v>
+        <v>27548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>4182</v>
+        <v>7488</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>1436</v>
+        <v>4687</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>5618</v>
+        <v>12175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>5431</v>
+        <v>2478</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1858</v>
+        <v>1509</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>7289</v>
+        <v>3987</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>971</v>
+        <v>2322</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>6614</v>
+        <v>7645</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>7585</v>
+        <v>9966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,204 +1371,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>10584</v>
+        <v>12287</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>9909</v>
+        <v>13841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7">
-        <v>20492</v>
+        <v>26128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>7860</v>
+        <v>8817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>5141</v>
+        <v>3414</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>13000</v>
+        <v>12230</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2613</v>
+        <v>2908</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1667</v>
+        <v>731</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>4280</v>
+        <v>3639</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2435</v>
+        <v>2470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>8327</v>
+        <v>2830</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>10761</v>
+        <v>5300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,204 +1577,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>12908</v>
+        <v>14195</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>13</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>21</v>
-      </c>
       <c r="I15" s="7">
-        <v>15135</v>
+        <v>6975</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N15" s="7">
-        <v>28042</v>
+        <v>21169</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>9365</v>
+        <v>13509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>3660</v>
+        <v>6694</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N16" s="7">
-        <v>13026</v>
+        <v>20203</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>2872</v>
+        <v>3384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>788</v>
+        <v>2606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>3661</v>
+        <v>5991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2502</v>
+        <v>2905</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>3119</v>
+        <v>8177</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>5622</v>
+        <v>11082</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,204 +1783,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>14740</v>
+        <v>19798</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>7567</v>
+        <v>17477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N19" s="7">
-        <v>22308</v>
+        <v>37275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>14337</v>
+        <v>39471</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I20" s="7">
-        <v>7271</v>
+        <v>16902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="N20" s="7">
-        <v>21608</v>
+        <v>56373</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>3518</v>
+        <v>14161</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>2891</v>
+        <v>6666</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N21" s="7">
-        <v>6410</v>
+        <v>20827</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>3110</v>
+        <v>8645</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>8760</v>
+        <v>26275</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="N22" s="7">
-        <v>11871</v>
+        <v>34920</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,268 +1989,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>20965</v>
+        <v>62277</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I23" s="7">
-        <v>18923</v>
+        <v>49843</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="N23" s="7">
-        <v>39889</v>
+        <v>112120</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>51</v>
-      </c>
-      <c r="D24" s="7">
-        <v>41770</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="7">
-        <v>33</v>
-      </c>
-      <c r="I24" s="7">
-        <v>18290</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="7">
-        <v>84</v>
-      </c>
-      <c r="N24" s="7">
-        <v>60060</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="7">
-        <v>15</v>
-      </c>
-      <c r="D25" s="7">
-        <v>14434</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="7">
-        <v>12</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7205</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="A24" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="7">
-        <v>27</v>
-      </c>
-      <c r="N25" s="7">
-        <v>21640</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7">
-        <v>11</v>
-      </c>
-      <c r="D26" s="7">
-        <v>9019</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="7">
-        <v>40</v>
-      </c>
-      <c r="I26" s="7">
-        <v>28222</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M26" s="7">
-        <v>51</v>
-      </c>
-      <c r="N26" s="7">
-        <v>37240</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>77</v>
-      </c>
-      <c r="D27" s="7">
-        <v>65223</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>85</v>
-      </c>
-      <c r="I27" s="7">
-        <v>53717</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="7">
-        <v>162</v>
-      </c>
-      <c r="N27" s="7">
-        <v>118940</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>161</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
